--- a/raw_data/20200818_saline/20200818_Sensor1_Test_69.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_69.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5953F-17F4-48FA-87FA-499B3E940548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>61388.380042</v>
+        <v>61388.380041999997</v>
       </c>
       <c r="B2" s="1">
-        <v>17.052328</v>
+        <v>17.052327999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>900.525000</v>
+        <v>900.52499999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.055000</v>
+        <v>-199.05500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>61398.445851</v>
+        <v>61398.445850999997</v>
       </c>
       <c r="G2" s="1">
-        <v>17.055124</v>
+        <v>17.055123999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>918.341000</v>
+        <v>918.34100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.272000</v>
+        <v>-168.27199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>61408.600943</v>
+        <v>61408.600942999998</v>
       </c>
       <c r="L2" s="1">
         <v>17.057945</v>
       </c>
       <c r="M2" s="1">
-        <v>940.946000</v>
+        <v>940.94600000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.591000</v>
+        <v>-119.59099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>61418.811585</v>
+        <v>61418.811585000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.060781</v>
+        <v>17.060780999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.683000</v>
+        <v>947.68299999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.461000</v>
+        <v>-103.461</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>61429.728035</v>
@@ -541,270 +957,270 @@
         <v>17.063813</v>
       </c>
       <c r="W2" s="1">
-        <v>954.249000</v>
+        <v>954.24900000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.476300</v>
+        <v>-88.476299999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>61440.270500</v>
+        <v>61440.270499999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.066742</v>
+        <v>17.066742000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.416000</v>
+        <v>961.41600000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.010300</v>
+        <v>-77.010300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>61450.798086</v>
+        <v>61450.798086000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.069666</v>
+        <v>17.069666000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.097000</v>
+        <v>966.09699999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.735000</v>
+        <v>-74.734999999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>61461.206172</v>
+        <v>61461.206171999998</v>
       </c>
       <c r="AK2" s="1">
         <v>17.072557</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.291000</v>
+        <v>973.29100000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.547400</v>
+        <v>-79.547399999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>61471.799214</v>
+        <v>61471.799213999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.075500</v>
+        <v>17.075500000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.371000</v>
+        <v>981.37099999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.199300</v>
+        <v>-91.199299999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>61482.847084</v>
+        <v>61482.847084000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.078569</v>
+        <v>17.078569000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.245000</v>
+        <v>991.245</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.015000</v>
+        <v>-109.015</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>61494.309628</v>
+        <v>61494.309628000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.081753</v>
+        <v>17.081752999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.552000</v>
+        <v>999.55200000000002</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.760000</v>
+        <v>-124.76</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>61505.277698</v>
+        <v>61505.277697999998</v>
       </c>
       <c r="BE2" s="1">
         <v>17.084799</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.660000</v>
+        <v>1038.6600000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.030000</v>
+        <v>-197.03</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>61516.354815</v>
+        <v>61516.354814999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.087876</v>
+        <v>17.087876000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.502000</v>
+        <v>-313.50200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>61527.424568</v>
+        <v>61527.424568000002</v>
       </c>
       <c r="BO2" s="1">
         <v>17.090951</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.284000</v>
+        <v>-495.28399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>61537.805796</v>
+        <v>61537.805796000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.093835</v>
+        <v>17.093834999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.140000</v>
+        <v>1340.14</v>
       </c>
       <c r="BV2" s="1">
-        <v>-693.372000</v>
+        <v>-693.37199999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>61549.258421</v>
+        <v>61549.258420999999</v>
       </c>
       <c r="BY2" s="1">
         <v>17.097016</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1476.710000</v>
+        <v>1476.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-903.040000</v>
+        <v>-903.04</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>61559.985397</v>
+        <v>61559.985396999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.099996</v>
+        <v>17.099996000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.770000</v>
+        <v>1831.77</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1398.240000</v>
+        <v>-1398.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>61388.772413</v>
+        <v>61388.772412999999</v>
       </c>
       <c r="B3" s="1">
-        <v>17.052437</v>
+        <v>17.052437000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>900.414000</v>
+        <v>900.41399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.972000</v>
+        <v>-198.97200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>61398.830284</v>
+        <v>61398.830284000003</v>
       </c>
       <c r="G3" s="1">
-        <v>17.055231</v>
+        <v>17.055230999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>918.073000</v>
+        <v>918.07299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.534000</v>
+        <v>-168.53399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>61409.017118</v>
+        <v>61409.017118000003</v>
       </c>
       <c r="L3" s="1">
-        <v>17.058060</v>
+        <v>17.058060000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>940.690000</v>
+        <v>940.69</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.703000</v>
+        <v>-119.703</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>61419.242113</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.060901</v>
+        <v>17.060901000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.637000</v>
+        <v>947.63699999999994</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.475000</v>
+        <v>-103.47499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>61430.130291</v>
+        <v>61430.130291000001</v>
       </c>
       <c r="V3" s="1">
-        <v>17.063925</v>
+        <v>17.063925000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.245000</v>
+        <v>954.245</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.489100</v>
+        <v>-88.489099999999993</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>61440.613738</v>
@@ -813,405 +1229,405 @@
         <v>17.066837</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.425000</v>
+        <v>961.42499999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.959100</v>
+        <v>-76.959100000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>61451.164630</v>
+        <v>61451.164629999999</v>
       </c>
       <c r="AF3" s="1">
         <v>17.069768</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.118000</v>
+        <v>966.11800000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.754400</v>
+        <v>-74.754400000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>61461.595992</v>
+        <v>61461.595992000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.072666</v>
+        <v>17.072666000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.289000</v>
+        <v>973.28899999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.547500</v>
+        <v>-79.547499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>61472.201946</v>
+        <v>61472.201946000001</v>
       </c>
       <c r="AP3" s="1">
         <v>17.075612</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.380000</v>
+        <v>981.38</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.216100</v>
+        <v>-91.216099999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>61483.608940</v>
+        <v>61483.608939999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.078780</v>
+        <v>17.078779999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.232000</v>
+        <v>991.23199999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.023000</v>
+        <v>-109.023</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>61494.719324</v>
+        <v>61494.719323999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.081866</v>
+        <v>17.081866000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.539000</v>
+        <v>999.53899999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.751000</v>
+        <v>-124.751</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>61505.664541</v>
+        <v>61505.664540999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.084907</v>
+        <v>17.084907000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.660000</v>
+        <v>1038.6600000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.001000</v>
+        <v>-197.001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>61516.753138</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.087987</v>
+        <v>17.087986999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.477000</v>
+        <v>-313.47699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>61528.162079</v>
+        <v>61528.162079000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.091156</v>
+        <v>17.091156000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.275000</v>
+        <v>-495.27499999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>61538.570626</v>
+        <v>61538.570626000001</v>
       </c>
       <c r="BT3" s="1">
         <v>17.094047</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.140000</v>
+        <v>1340.14</v>
       </c>
       <c r="BV3" s="1">
-        <v>-693.461000</v>
+        <v>-693.46100000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>61549.428547</v>
+        <v>61549.428547000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.097063</v>
+        <v>17.097062999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1476.720000</v>
+        <v>1476.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-903.124000</v>
+        <v>-903.12400000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>61560.548394</v>
+        <v>61560.548393999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.100152</v>
+        <v>17.100152000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.050000</v>
+        <v>1831.05</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1399.760000</v>
+        <v>-1399.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>61389.114152</v>
+        <v>61389.114152000002</v>
       </c>
       <c r="B4" s="1">
-        <v>17.052532</v>
+        <v>17.052531999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>900.574000</v>
+        <v>900.57399999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.075000</v>
+        <v>-199.07499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>61399.251850</v>
+        <v>61399.251850000001</v>
       </c>
       <c r="G4" s="1">
-        <v>17.055348</v>
+        <v>17.055347999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>917.940000</v>
+        <v>917.94</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.125000</v>
+        <v>-168.125</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>61409.367262</v>
       </c>
       <c r="L4" s="1">
-        <v>17.058158</v>
+        <v>17.058157999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.903000</v>
+        <v>940.90300000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.735000</v>
+        <v>-119.735</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>61419.576417</v>
+        <v>61419.576416999997</v>
       </c>
       <c r="Q4" s="1">
         <v>17.060993</v>
       </c>
       <c r="R4" s="1">
-        <v>947.648000</v>
+        <v>947.64800000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.508000</v>
+        <v>-103.508</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>61430.473553</v>
+        <v>61430.473553000003</v>
       </c>
       <c r="V4" s="1">
-        <v>17.064020</v>
+        <v>17.064019999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.186000</v>
+        <v>954.18600000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.512100</v>
+        <v>-88.512100000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>61440.961962</v>
+        <v>61440.961962000001</v>
       </c>
       <c r="AA4" s="1">
         <v>17.066934</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.457000</v>
+        <v>961.45699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.979300</v>
+        <v>-76.979299999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>61451.509350</v>
+        <v>61451.50935</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.069864</v>
+        <v>17.069863999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.119000</v>
+        <v>966.11900000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.747900</v>
+        <v>-74.747900000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>61462.292407</v>
+        <v>61462.292407000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.072859</v>
+        <v>17.072859000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.302000</v>
+        <v>973.30200000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.530700</v>
+        <v>-79.530699999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>61472.922149</v>
+        <v>61472.922148999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.075812</v>
+        <v>17.075811999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.378000</v>
+        <v>981.37800000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.214800</v>
+        <v>-91.214799999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>61483.971018</v>
+        <v>61483.971017999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.078881</v>
+        <v>17.078880999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.248000</v>
+        <v>991.24800000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.016000</v>
+        <v>-109.01600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>61495.077931</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.081966</v>
+        <v>17.081966000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.554000</v>
+        <v>999.55399999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>61506.023679</v>
+        <v>61506.023678999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.085007</v>
+        <v>17.085007000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.028000</v>
+        <v>-197.02799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>61517.441586</v>
+        <v>61517.441586000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.088178</v>
+        <v>17.088177999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.494000</v>
+        <v>-313.49400000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>61528.272689</v>
+        <v>61528.272688999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.091187</v>
+        <v>17.091187000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.273000</v>
+        <v>-495.27300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>61538.685202</v>
+        <v>61538.685202000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.094079</v>
+        <v>17.094079000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.030000</v>
+        <v>1340.03</v>
       </c>
       <c r="BV4" s="1">
-        <v>-693.473000</v>
+        <v>-693.47299999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>61549.880439</v>
@@ -1220,1133 +1636,1133 @@
         <v>17.097189</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1476.700000</v>
+        <v>1476.7</v>
       </c>
       <c r="CA4" s="1">
-        <v>-903.154000</v>
+        <v>-903.154</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>61561.087508</v>
+        <v>61561.087507999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.100302</v>
+        <v>17.100301999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1832.360000</v>
+        <v>1832.36</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1399.370000</v>
+        <v>-1399.37</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>61389.539721</v>
+        <v>61389.539721000001</v>
       </c>
       <c r="B5" s="1">
-        <v>17.052650</v>
+        <v>17.05265</v>
       </c>
       <c r="C5" s="1">
-        <v>900.546000</v>
+        <v>900.54600000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.881000</v>
+        <v>-198.881</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>61399.550938</v>
       </c>
       <c r="G5" s="1">
-        <v>17.055431</v>
+        <v>17.055430999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>917.860000</v>
+        <v>917.86</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.704000</v>
+        <v>-168.70400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>61409.711484</v>
+        <v>61409.711483999999</v>
       </c>
       <c r="L5" s="1">
-        <v>17.058253</v>
+        <v>17.058253000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>940.911000</v>
+        <v>940.91099999999994</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.620000</v>
+        <v>-119.62</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>61419.924614</v>
+        <v>61419.924614000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.061090</v>
+        <v>17.06109</v>
       </c>
       <c r="R5" s="1">
-        <v>947.648000</v>
+        <v>947.64800000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.527000</v>
+        <v>-103.527</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>61430.815795</v>
+        <v>61430.815795000002</v>
       </c>
       <c r="V5" s="1">
-        <v>17.064115</v>
+        <v>17.064115000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.311000</v>
+        <v>954.31100000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.628700</v>
+        <v>-88.628699999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>61441.661282</v>
+        <v>61441.661282000001</v>
       </c>
       <c r="AA5" s="1">
         <v>17.067128</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.400000</v>
+        <v>961.4</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.945700</v>
+        <v>-76.945700000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>61452.195844</v>
+        <v>61452.195844000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.070054</v>
+        <v>17.070053999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.098000</v>
+        <v>966.09799999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.812100</v>
+        <v>-74.812100000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>61462.641062</v>
+        <v>61462.641062000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.072956</v>
+        <v>17.072956000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.315000</v>
+        <v>973.31500000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.534900</v>
+        <v>-79.534899999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>61473.312490</v>
+        <v>61473.312489999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.075920</v>
+        <v>17.07592</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.371000</v>
+        <v>981.37099999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.226500</v>
+        <v>-91.226500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>61484.335579</v>
+        <v>61484.335578999999</v>
       </c>
       <c r="AU5" s="1">
         <v>17.078982</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.252000</v>
+        <v>991.25199999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>61495.740588</v>
+        <v>61495.740588000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.082150</v>
+        <v>17.082149999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.551000</v>
+        <v>999.55100000000004</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.750000</v>
+        <v>-124.75</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>61506.674893</v>
+        <v>61506.674893000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.085187</v>
+        <v>17.085187000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.015000</v>
+        <v>-197.01499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>61517.881005</v>
+        <v>61517.881005000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.088300</v>
+        <v>17.0883</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.600000</v>
+        <v>1106.5999999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.563000</v>
+        <v>-313.56299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>61528.699743</v>
+        <v>61528.699742999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.091305</v>
+        <v>17.091304999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.321000</v>
+        <v>-495.32100000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>61539.109779</v>
+        <v>61539.109778999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.094197</v>
+        <v>17.094197000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.130000</v>
+        <v>1340.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-693.530000</v>
+        <v>-693.53</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>61550.336226</v>
+        <v>61550.336225999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.097316</v>
+        <v>17.097315999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1476.760000</v>
+        <v>1476.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-903.234000</v>
+        <v>-903.23400000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>61561.627652</v>
+        <v>61561.627652000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.100452</v>
+        <v>17.100452000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.080000</v>
+        <v>1831.08</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1398.970000</v>
+        <v>-1398.97</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>61389.799591</v>
+        <v>61389.799591000003</v>
       </c>
       <c r="B6" s="1">
-        <v>17.052722</v>
+        <v>17.052721999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>900.518000</v>
+        <v>900.51800000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.081000</v>
+        <v>-199.08099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>61399.894697</v>
+        <v>61399.894697000003</v>
       </c>
       <c r="G6" s="1">
         <v>17.055526</v>
       </c>
       <c r="H6" s="1">
-        <v>917.944000</v>
+        <v>917.94399999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.642000</v>
+        <v>-168.642</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>61410.059677</v>
+        <v>61410.059676999997</v>
       </c>
       <c r="L6" s="1">
-        <v>17.058350</v>
+        <v>17.058350000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.984000</v>
+        <v>940.98400000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.678000</v>
+        <v>-119.678</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>61420.271357</v>
+        <v>61420.271356999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.061186</v>
+        <v>17.061185999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.640000</v>
+        <v>947.64</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.490000</v>
+        <v>-103.49</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>61431.502250</v>
+        <v>61431.502249999998</v>
       </c>
       <c r="V6" s="1">
-        <v>17.064306</v>
+        <v>17.064305999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>954.335000</v>
+        <v>954.33500000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.591600</v>
+        <v>-88.5916</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>61442.006994</v>
+        <v>61442.006994000003</v>
       </c>
       <c r="AA6" s="1">
         <v>17.067224</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.424000</v>
+        <v>961.42399999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.931600</v>
+        <v>-76.931600000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>61452.544035</v>
+        <v>61452.544034999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.070151</v>
+        <v>17.070150999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.035000</v>
+        <v>966.03499999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.719900</v>
+        <v>-74.719899999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>61462.990775</v>
+        <v>61462.990774999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.073053</v>
+        <v>17.073053000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.277000</v>
+        <v>973.27700000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.525700</v>
+        <v>-79.525700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>61474.006392</v>
+        <v>61474.006392000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.076113</v>
+        <v>17.076112999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.350000</v>
+        <v>981.35</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.229300</v>
+        <v>-91.229299999999995</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>61485.015594</v>
+        <v>61485.015593999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.079171</v>
+        <v>17.079170999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.265000</v>
+        <v>991.26499999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.023000</v>
+        <v>-109.023</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>61496.152266</v>
+        <v>61496.152265999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>17.082265</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.536000</v>
+        <v>999.53599999999994</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.766000</v>
+        <v>-124.76600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>61507.144109</v>
+        <v>61507.144109000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.085318</v>
+        <v>17.085318000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.030000</v>
+        <v>-197.03</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>61518.255485</v>
+        <v>61518.255485000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.088404</v>
+        <v>17.088404000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.534000</v>
+        <v>-313.53399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>61529.094560</v>
+        <v>61529.094559999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.091415</v>
+        <v>17.091415000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.820000</v>
+        <v>1216.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.342000</v>
+        <v>-495.34199999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>61539.522958</v>
+        <v>61539.522958000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.094312</v>
+        <v>17.094311999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.040000</v>
+        <v>1340.04</v>
       </c>
       <c r="BV6" s="1">
-        <v>-693.573000</v>
+        <v>-693.57299999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>61550.785603</v>
+        <v>61550.785602999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.097440</v>
+        <v>17.097439999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1476.910000</v>
+        <v>1476.91</v>
       </c>
       <c r="CA6" s="1">
-        <v>-903.271000</v>
+        <v>-903.27099999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>61562.170770</v>
+        <v>61562.170769999997</v>
       </c>
       <c r="CD6" s="1">
         <v>17.100603</v>
       </c>
       <c r="CE6" s="1">
-        <v>1832.370000</v>
+        <v>1832.37</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1400.130000</v>
+        <v>-1400.13</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>61390.165142</v>
+        <v>61390.165141999998</v>
       </c>
       <c r="B7" s="1">
-        <v>17.052824</v>
+        <v>17.052824000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>900.460000</v>
+        <v>900.46</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.940000</v>
+        <v>-198.94</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>61400.238921</v>
+        <v>61400.238920999996</v>
       </c>
       <c r="G7" s="1">
         <v>17.055622</v>
       </c>
       <c r="H7" s="1">
-        <v>918.203000</v>
+        <v>918.20299999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.214000</v>
+        <v>-168.214</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>61410.751132</v>
+        <v>61410.751131999998</v>
       </c>
       <c r="L7" s="1">
-        <v>17.058542</v>
+        <v>17.058541999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>940.861000</v>
+        <v>940.86099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.576000</v>
+        <v>-119.57599999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>61420.969215</v>
+        <v>61420.969214999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.061380</v>
+        <v>17.06138</v>
       </c>
       <c r="R7" s="1">
-        <v>947.613000</v>
+        <v>947.61300000000006</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>61431.847440</v>
+        <v>61431.847439999998</v>
       </c>
       <c r="V7" s="1">
-        <v>17.064402</v>
+        <v>17.064402000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.228000</v>
+        <v>954.22799999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.560900</v>
+        <v>-88.560900000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>61442.358657</v>
+        <v>61442.358656999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.067322</v>
+        <v>17.067322000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.488000</v>
+        <v>961.48800000000006</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.900100</v>
+        <v>-76.900099999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>61452.888732</v>
+        <v>61452.888731999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.070247</v>
+        <v>17.070246999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.152000</v>
+        <v>966.15200000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.661700</v>
+        <v>-74.661699999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>61463.644469</v>
+        <v>61463.644468999999</v>
       </c>
       <c r="AK7" s="1">
         <v>17.073235</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.291000</v>
+        <v>973.29100000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.532200</v>
+        <v>-79.532200000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>61474.407686</v>
+        <v>61474.407685999999</v>
       </c>
       <c r="AP7" s="1">
         <v>17.076224</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.355000</v>
+        <v>981.35500000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.224200</v>
+        <v>-91.224199999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>61485.460008</v>
+        <v>61485.460008000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.079294</v>
+        <v>17.079294000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.247000</v>
+        <v>991.24699999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.029000</v>
+        <v>-109.029</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>61496.538187</v>
+        <v>61496.538186999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.082372</v>
+        <v>17.082371999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.555000</v>
+        <v>999.55499999999995</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.731000</v>
+        <v>-124.73099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>61507.505227</v>
+        <v>61507.505227000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.085418</v>
+        <v>17.085418000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.018000</v>
+        <v>-197.018</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>61518.632266</v>
+        <v>61518.632266000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.088509</v>
+        <v>17.088508999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.544000</v>
+        <v>-313.54399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>61529.522607</v>
+        <v>61529.522606999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.091534</v>
+        <v>17.091533999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.368000</v>
+        <v>-495.36799999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>61540.379072</v>
+        <v>61540.379072000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.094550</v>
+        <v>17.094550000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.010000</v>
+        <v>1340.01</v>
       </c>
       <c r="BV7" s="1">
-        <v>-693.568000</v>
+        <v>-693.56799999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>61551.241425</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.097567</v>
+        <v>17.097567000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1476.750000</v>
+        <v>1476.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-903.102000</v>
+        <v>-903.10199999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>61562.707474</v>
+        <v>61562.707474000003</v>
       </c>
       <c r="CD7" s="1">
         <v>17.100752</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.690000</v>
+        <v>1831.69</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1398.480000</v>
+        <v>-1398.48</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>61390.804517</v>
+        <v>61390.804516999997</v>
       </c>
       <c r="B8" s="1">
-        <v>17.053001</v>
+        <v>17.053000999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>900.532000</v>
+        <v>900.53200000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.006000</v>
+        <v>-199.006</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>61400.929820</v>
+        <v>61400.929819999998</v>
       </c>
       <c r="G8" s="1">
-        <v>17.055814</v>
+        <v>17.055814000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>917.942000</v>
+        <v>917.94200000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.613000</v>
+        <v>-167.613</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>61411.099786</v>
+        <v>61411.099785999999</v>
       </c>
       <c r="L8" s="1">
-        <v>17.058639</v>
+        <v>17.058638999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.850000</v>
+        <v>940.85</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.661000</v>
+        <v>-119.661</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>61421.317409</v>
+        <v>61421.317409000003</v>
       </c>
       <c r="Q8" s="1">
         <v>17.061477</v>
       </c>
       <c r="R8" s="1">
-        <v>947.630000</v>
+        <v>947.63</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.419000</v>
+        <v>-103.419</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>61432.193184</v>
+        <v>61432.193184000003</v>
       </c>
       <c r="V8" s="1">
         <v>17.064498</v>
       </c>
       <c r="W8" s="1">
-        <v>954.182000</v>
+        <v>954.18200000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.539300</v>
+        <v>-88.539299999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>61443.021346</v>
+        <v>61443.021346000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.067506</v>
+        <v>17.067506000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.431000</v>
+        <v>961.43100000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.949800</v>
+        <v>-76.949799999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>61453.550883</v>
+        <v>61453.550883000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.070431</v>
+        <v>17.070430999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.094000</v>
+        <v>966.09400000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.759400</v>
+        <v>-74.759399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>61464.035844</v>
+        <v>61464.035843999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.073343</v>
+        <v>17.073343000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.296000</v>
+        <v>973.29600000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.526200</v>
+        <v>-79.526200000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>61474.768248</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.076325</v>
+        <v>17.076325000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.375000</v>
+        <v>981.375</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.239600</v>
+        <v>-91.239599999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>61485.825096</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.079396</v>
+        <v>17.079395999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.233000</v>
+        <v>991.23299999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.011000</v>
+        <v>-109.011</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>61496.897753</v>
+        <v>61496.897752999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.082472</v>
+        <v>17.082471999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.531000</v>
+        <v>999.53099999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.746000</v>
+        <v>-124.746</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>61507.924314</v>
+        <v>61507.924314000004</v>
       </c>
       <c r="BE8" s="1">
         <v>17.085535</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.032000</v>
+        <v>-197.03200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>61519.047627</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.088624</v>
+        <v>17.088623999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.530000</v>
+        <v>-313.52999999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>61529.913459</v>
+        <v>61529.913459000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.091643</v>
+        <v>17.091643000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.365000</v>
+        <v>-495.36500000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>61540.814031</v>
+        <v>61540.814031000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.094671</v>
+        <v>17.094671000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1339.970000</v>
+        <v>1339.97</v>
       </c>
       <c r="BV8" s="1">
-        <v>-693.600000</v>
+        <v>-693.6</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>61551.692786</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.097692</v>
+        <v>17.097691999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1476.930000</v>
+        <v>1476.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-903.173000</v>
+        <v>-903.173</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>61563.249076</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.100903</v>
+        <v>17.100902999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.310000</v>
+        <v>1831.31</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1400.070000</v>
+        <v>-1400.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>61391.163093</v>
+        <v>61391.163093000003</v>
       </c>
       <c r="B9" s="1">
-        <v>17.053101</v>
+        <v>17.053101000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>900.558000</v>
+        <v>900.55799999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.062000</v>
+        <v>-199.06200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>61401.271559</v>
+        <v>61401.271559000001</v>
       </c>
       <c r="G9" s="1">
         <v>17.055909</v>
       </c>
       <c r="H9" s="1">
-        <v>918.048000</v>
+        <v>918.048</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.342000</v>
+        <v>-168.34200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>61411.442530</v>
+        <v>61411.44253</v>
       </c>
       <c r="L9" s="1">
-        <v>17.058734</v>
+        <v>17.058734000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>940.861000</v>
+        <v>940.86099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.703000</v>
+        <v>-119.703</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>61421.666062</v>
+        <v>61421.666061999997</v>
       </c>
       <c r="Q9" s="1">
         <v>17.061574</v>
       </c>
       <c r="R9" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.401000</v>
+        <v>-103.401</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>61432.837491</v>
+        <v>61432.837490999998</v>
       </c>
       <c r="V9" s="1">
         <v>17.064677</v>
       </c>
       <c r="W9" s="1">
-        <v>954.269000</v>
+        <v>954.26900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.471200</v>
+        <v>-88.471199999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>61443.402768</v>
@@ -2355,88 +2771,88 @@
         <v>17.067612</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.406000</v>
+        <v>961.40599999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.918200</v>
+        <v>-76.918199999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>61453.918419</v>
+        <v>61453.918419000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.070533</v>
+        <v>17.070533000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.082000</v>
+        <v>966.08199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.764600</v>
+        <v>-74.764600000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>61464.381525</v>
+        <v>61464.381524999997</v>
       </c>
       <c r="AK9" s="1">
         <v>17.073439</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.285000</v>
+        <v>973.28499999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.537700</v>
+        <v>-79.537700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>61475.128342</v>
+        <v>61475.128342000004</v>
       </c>
       <c r="AP9" s="1">
         <v>17.076425</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.341000</v>
+        <v>981.34100000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.214500</v>
+        <v>-91.214500000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>61486.189162</v>
+        <v>61486.189162000002</v>
       </c>
       <c r="AU9" s="1">
         <v>17.079497</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.267000</v>
+        <v>991.26700000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.999000</v>
+        <v>-108.999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>61497.317570</v>
+        <v>61497.317569999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.082588</v>
+        <v>17.082588000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.527000</v>
+        <v>999.52700000000004</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.738000</v>
+        <v>-124.738</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>61508.226379</v>
@@ -2445,362 +2861,362 @@
         <v>17.085618</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.660000</v>
+        <v>1038.6600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.039000</v>
+        <v>-197.03899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>61519.380944</v>
+        <v>61519.380943999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.088717</v>
+        <v>17.088716999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.533000</v>
+        <v>-313.53300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>61530.341997</v>
+        <v>61530.341997000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.091762</v>
+        <v>17.091761999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.388000</v>
+        <v>-495.38799999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>61541.224222</v>
+        <v>61541.224221999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.094785</v>
+        <v>17.094785000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1339.920000</v>
+        <v>1339.92</v>
       </c>
       <c r="BV9" s="1">
-        <v>-693.578000</v>
+        <v>-693.57799999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>61552.140178</v>
+        <v>61552.140178000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.097817</v>
+        <v>17.097816999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1476.790000</v>
+        <v>1476.79</v>
       </c>
       <c r="CA9" s="1">
-        <v>-903.265000</v>
+        <v>-903.26499999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>61563.789217</v>
+        <v>61563.789216999998</v>
       </c>
       <c r="CD9" s="1">
         <v>17.101053</v>
       </c>
       <c r="CE9" s="1">
-        <v>1832.620000</v>
+        <v>1832.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1399.410000</v>
+        <v>-1399.41</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>61391.503844</v>
+        <v>61391.503843999999</v>
       </c>
       <c r="B10" s="1">
         <v>17.053196</v>
       </c>
       <c r="C10" s="1">
-        <v>900.524000</v>
+        <v>900.524</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.018000</v>
+        <v>-199.018</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>61401.618264</v>
+        <v>61401.618263999997</v>
       </c>
       <c r="G10" s="1">
-        <v>17.056005</v>
+        <v>17.056004999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.487000</v>
+        <v>917.48699999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.172000</v>
+        <v>-168.172</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>61412.100746</v>
+        <v>61412.100745999996</v>
       </c>
       <c r="L10" s="1">
-        <v>17.058917</v>
+        <v>17.058917000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.901000</v>
+        <v>940.90099999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.563000</v>
+        <v>-119.563</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>61422.341115</v>
+        <v>61422.341115000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.061761</v>
+        <v>17.061761000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.627000</v>
+        <v>947.62699999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.478000</v>
+        <v>-103.47799999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>61433.222360</v>
+        <v>61433.22236</v>
       </c>
       <c r="V10" s="1">
         <v>17.064784</v>
       </c>
       <c r="W10" s="1">
-        <v>954.220000</v>
+        <v>954.22</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.421400</v>
+        <v>-88.421400000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>61443.750929</v>
+        <v>61443.750929000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.067709</v>
+        <v>17.067709000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.379000</v>
+        <v>961.37900000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.978900</v>
+        <v>-76.978899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>61454.262641</v>
+        <v>61454.262641000001</v>
       </c>
       <c r="AF10" s="1">
         <v>17.070629</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.098000</v>
+        <v>966.09799999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.758600</v>
+        <v>-74.758600000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>61464.730739</v>
+        <v>61464.730738999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.073536</v>
+        <v>17.073536000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.314000</v>
+        <v>973.31399999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.536700</v>
+        <v>-79.536699999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>61475.553413</v>
+        <v>61475.553413000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.076543</v>
+        <v>17.076543000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.387000</v>
+        <v>981.38699999999994</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.183800</v>
+        <v>-91.183800000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>61486.618168</v>
+        <v>61486.618168000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.079616</v>
+        <v>17.079616000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.233000</v>
+        <v>991.23299999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.029000</v>
+        <v>-109.029</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>61497.612984</v>
+        <v>61497.612983999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.082670</v>
+        <v>17.08267</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.527000</v>
+        <v>999.52700000000004</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.742000</v>
+        <v>-124.742</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>61508.586999</v>
+        <v>61508.586998999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.085719</v>
+        <v>17.085719000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.029000</v>
+        <v>-197.029</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>61519.779195</v>
+        <v>61519.779195000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.088828</v>
+        <v>17.088827999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.505000</v>
+        <v>-313.505</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>61530.733838</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.091871</v>
+        <v>17.091871000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.305000</v>
+        <v>-495.30500000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>61541.649830</v>
+        <v>61541.649830000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.094903</v>
+        <v>17.094902999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1339.860000</v>
+        <v>1339.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-693.632000</v>
+        <v>-693.63199999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>61552.562459</v>
+        <v>61552.562459000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.097934</v>
+        <v>17.097933999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1476.710000</v>
+        <v>1476.71</v>
       </c>
       <c r="CA10" s="1">
-        <v>-903.211000</v>
+        <v>-903.21100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>61564.328896</v>
+        <v>61564.328895999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.101202</v>
+        <v>17.101202000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.140000</v>
+        <v>1831.14</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1399.160000</v>
+        <v>-1399.16</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>61392.169508</v>
+        <v>61392.169507999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.053380</v>
+        <v>17.053380000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>900.513000</v>
+        <v>900.51300000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.946000</v>
+        <v>-198.946</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>61402.268054</v>
@@ -2809,360 +3225,360 @@
         <v>17.056186</v>
       </c>
       <c r="H11" s="1">
-        <v>918.065000</v>
+        <v>918.06500000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.089000</v>
+        <v>-168.089</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>61412.476682</v>
       </c>
       <c r="L11" s="1">
-        <v>17.059021</v>
+        <v>17.059021000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.795000</v>
+        <v>940.79499999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.667000</v>
+        <v>-119.667</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>61422.711131</v>
+        <v>61422.711130999996</v>
       </c>
       <c r="Q11" s="1">
         <v>17.061864</v>
       </c>
       <c r="R11" s="1">
-        <v>947.620000</v>
+        <v>947.62</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>61433.563628</v>
+        <v>61433.563628000004</v>
       </c>
       <c r="V11" s="1">
-        <v>17.064879</v>
+        <v>17.064879000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.212000</v>
+        <v>954.21199999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.576700</v>
+        <v>-88.576700000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>61444.100607</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.067806</v>
+        <v>17.067806000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.391000</v>
+        <v>961.39099999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.956300</v>
+        <v>-76.956299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>61454.596946</v>
+        <v>61454.596945999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.070721</v>
+        <v>17.070720999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.094000</v>
+        <v>966.09400000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.716400</v>
+        <v>-74.716399999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>61465.163751</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.073657</v>
+        <v>17.073657000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.298000</v>
+        <v>973.298</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.533200</v>
+        <v>-79.533199999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>61475.850021</v>
+        <v>61475.850020999998</v>
       </c>
       <c r="AP11" s="1">
         <v>17.076625</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.367000</v>
+        <v>981.36699999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.218400</v>
+        <v>-91.218400000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>61486.918528</v>
+        <v>61486.918528000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.079700</v>
+        <v>17.079699999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.238000</v>
+        <v>991.23800000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.014000</v>
+        <v>-109.014</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>61497.973081</v>
+        <v>61497.973080999996</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.082770</v>
+        <v>17.08277</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.514000</v>
+        <v>999.51400000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>61508.949547</v>
+        <v>61508.949546999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.085819</v>
+        <v>17.085819000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.630000</v>
+        <v>1038.6300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.036000</v>
+        <v>-197.036</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>61520.154202</v>
+        <v>61520.154201999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>17.088932</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.522000</v>
+        <v>-313.52199999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>61531.155969</v>
+        <v>61531.155968999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.091988</v>
+        <v>17.091988000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.382000</v>
+        <v>-495.38200000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>61542.082301</v>
+        <v>61542.082301000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.095023</v>
+        <v>17.095023000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1339.860000</v>
+        <v>1339.86</v>
       </c>
       <c r="BV11" s="1">
-        <v>-693.604000</v>
+        <v>-693.60400000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>61552.983872</v>
+        <v>61552.983871999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.098051</v>
+        <v>17.098051000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1476.640000</v>
+        <v>1476.64</v>
       </c>
       <c r="CA11" s="1">
-        <v>-903.259000</v>
+        <v>-903.25900000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>61564.866031</v>
+        <v>61564.866030999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.101352</v>
+        <v>17.101351999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1832.590000</v>
+        <v>1832.59</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1400.040000</v>
+        <v>-1400.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>61392.529571</v>
+        <v>61392.529570999999</v>
       </c>
       <c r="B12" s="1">
-        <v>17.053480</v>
+        <v>17.05348</v>
       </c>
       <c r="C12" s="1">
-        <v>900.783000</v>
+        <v>900.78300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.833000</v>
+        <v>-198.833</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>61402.652949</v>
+        <v>61402.652949000003</v>
       </c>
       <c r="G12" s="1">
-        <v>17.056292</v>
+        <v>17.056291999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>917.682000</v>
+        <v>917.68200000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.345000</v>
+        <v>-168.345</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>61412.826889</v>
+        <v>61412.826889000004</v>
       </c>
       <c r="L12" s="1">
-        <v>17.059119</v>
+        <v>17.059118999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>940.790000</v>
+        <v>940.79</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.509000</v>
+        <v>-119.509</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>61423.112892</v>
+        <v>61423.112891999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.061976</v>
+        <v>17.061976000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>947.606000</v>
+        <v>947.60599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.436000</v>
+        <v>-103.43600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>61433.908316</v>
+        <v>61433.908316000001</v>
       </c>
       <c r="V12" s="1">
         <v>17.064975</v>
       </c>
       <c r="W12" s="1">
-        <v>954.196000</v>
+        <v>954.19600000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.545800</v>
+        <v>-88.5458</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>61444.523200</v>
+        <v>61444.523200000003</v>
       </c>
       <c r="AA12" s="1">
         <v>17.067923</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.396000</v>
+        <v>961.39599999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.970800</v>
+        <v>-76.970799999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>61455.020528</v>
+        <v>61455.020528000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.070839</v>
+        <v>17.070838999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.083000</v>
+        <v>966.08299999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.669800</v>
+        <v>-74.669799999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>61465.445443</v>
+        <v>61465.445442999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.073735</v>
+        <v>17.073734999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.312000</v>
+        <v>973.31200000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.528600</v>
+        <v>-79.528599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>61476.208628</v>
@@ -3171,136 +3587,136 @@
         <v>17.076725</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.376000</v>
+        <v>981.37599999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.216100</v>
+        <v>-91.216099999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>61487.282341</v>
+        <v>61487.282340999998</v>
       </c>
       <c r="AU12" s="1">
         <v>17.079801</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.254000</v>
+        <v>991.25400000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.001000</v>
+        <v>-109.001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>61498.333175</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.082870</v>
+        <v>17.08287</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.521000</v>
+        <v>999.52099999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.759000</v>
+        <v>-124.759</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>61509.672217</v>
+        <v>61509.672216999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.086020</v>
+        <v>17.086020000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.036000</v>
+        <v>-197.036</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>61520.904617</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.089140</v>
+        <v>17.08914</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.557000</v>
+        <v>-313.55700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>61531.551243</v>
+        <v>61531.551243000002</v>
       </c>
       <c r="BO12" s="1">
         <v>17.092098</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.325000</v>
+        <v>-495.32499999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>61542.492989</v>
+        <v>61542.492988999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.095137</v>
+        <v>17.095137000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1339.850000</v>
+        <v>1339.85</v>
       </c>
       <c r="BV12" s="1">
-        <v>-693.625000</v>
+        <v>-693.625</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>61553.430271</v>
+        <v>61553.430270999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.098175</v>
+        <v>17.098175000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1476.850000</v>
+        <v>1476.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-903.193000</v>
+        <v>-903.19299999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>61565.723118</v>
+        <v>61565.723118000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.101590</v>
+        <v>17.101590000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.860000</v>
+        <v>1830.86</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1399.830000</v>
+        <v>-1399.83</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>61392.872336</v>
       </c>
@@ -3308,1463 +3724,1463 @@
         <v>17.053576</v>
       </c>
       <c r="C13" s="1">
-        <v>900.507000</v>
+        <v>900.50699999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.003000</v>
+        <v>-199.00299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>61402.998135</v>
+        <v>61402.998135000002</v>
       </c>
       <c r="G13" s="1">
-        <v>17.056388</v>
+        <v>17.056387999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>918.159000</v>
+        <v>918.15899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.260000</v>
+        <v>-168.26</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>61413.171577</v>
+        <v>61413.171577000001</v>
       </c>
       <c r="L13" s="1">
-        <v>17.059214</v>
+        <v>17.059214000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.766000</v>
+        <v>940.76599999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.621000</v>
+        <v>-119.621</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>61423.413962</v>
+        <v>61423.413961999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.062059</v>
+        <v>17.062059000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>947.608000</v>
+        <v>947.60799999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.426000</v>
+        <v>-103.426</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>61434.345293</v>
+        <v>61434.345292999998</v>
       </c>
       <c r="V13" s="1">
         <v>17.065096</v>
       </c>
       <c r="W13" s="1">
-        <v>954.266000</v>
+        <v>954.26599999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.451200</v>
+        <v>-88.4512</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>61444.796494</v>
+        <v>61444.796494000002</v>
       </c>
       <c r="AA13" s="1">
         <v>17.067999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.446000</v>
+        <v>961.44600000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.986500</v>
+        <v>-76.986500000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>61455.298321</v>
+        <v>61455.298321000002</v>
       </c>
       <c r="AF13" s="1">
         <v>17.070916</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.056000</v>
+        <v>966.05600000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.792200</v>
+        <v>-74.792199999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>61465.789686</v>
+        <v>61465.789685999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.073830</v>
+        <v>17.073830000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.320000</v>
+        <v>973.32</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.537200</v>
+        <v>-79.537199999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>61476.565252</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.076824</v>
+        <v>17.076823999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.365000</v>
+        <v>981.36500000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.204100</v>
+        <v>-91.204099999999997</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>61487.647863</v>
+        <v>61487.647862999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.079902</v>
+        <v>17.079902000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.258000</v>
+        <v>991.25800000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.021000</v>
+        <v>-109.021</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>61499.052375</v>
+        <v>61499.052374999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.083070</v>
+        <v>17.083069999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.535000</v>
+        <v>999.53499999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.752000</v>
+        <v>-124.752</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>61510.063587</v>
+        <v>61510.063586999997</v>
       </c>
       <c r="BE13" s="1">
         <v>17.086129</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.670000</v>
+        <v>1038.67</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>61521.281094</v>
+        <v>61521.281093999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.089245</v>
+        <v>17.089244999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.524000</v>
+        <v>-313.524</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>61531.970890</v>
+        <v>61531.970889999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.092214</v>
+        <v>17.092213999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.840000</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.347000</v>
+        <v>-495.34699999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>61543.233020</v>
+        <v>61543.23302</v>
       </c>
       <c r="BT13" s="1">
         <v>17.095343</v>
       </c>
       <c r="BU13" s="1">
-        <v>1339.850000</v>
+        <v>1339.85</v>
       </c>
       <c r="BV13" s="1">
-        <v>-693.570000</v>
+        <v>-693.57</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>61554.179098</v>
+        <v>61554.179098000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.098383</v>
+        <v>17.098382999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1476.730000</v>
+        <v>1476.73</v>
       </c>
       <c r="CA13" s="1">
-        <v>-903.285000</v>
+        <v>-903.28499999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>61565.946846</v>
+        <v>61565.946845999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.101652</v>
+        <v>17.101652000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.950000</v>
+        <v>1830.95</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1399.210000</v>
+        <v>-1399.21</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>61393.210169</v>
+        <v>61393.210168999998</v>
       </c>
       <c r="B14" s="1">
-        <v>17.053669</v>
+        <v>17.053668999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>900.441000</v>
+        <v>900.44100000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.916000</v>
+        <v>-198.916</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>61403.340406</v>
+        <v>61403.340406000003</v>
       </c>
       <c r="G14" s="1">
         <v>17.056483</v>
       </c>
       <c r="H14" s="1">
-        <v>917.709000</v>
+        <v>917.70899999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.439000</v>
+        <v>-168.43899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>61413.586231</v>
+        <v>61413.586231000001</v>
       </c>
       <c r="L14" s="1">
-        <v>17.059330</v>
+        <v>17.059329999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.865000</v>
+        <v>940.86500000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.636000</v>
+        <v>-119.636</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>61424.111867</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.062253</v>
+        <v>17.062252999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>947.671000</v>
+        <v>947.67100000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.434000</v>
+        <v>-103.434</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>61434.615613</v>
+        <v>61434.615613000002</v>
       </c>
       <c r="V14" s="1">
-        <v>17.065171</v>
+        <v>17.065170999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>954.328000</v>
+        <v>954.32799999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.505200</v>
+        <v>-88.505200000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>61445.147693</v>
+        <v>61445.147692999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.068097</v>
+        <v>17.068097000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.405000</v>
+        <v>961.40499999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.992900</v>
+        <v>-76.992900000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>61455.637552</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.071010</v>
+        <v>17.071010000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.076000</v>
+        <v>966.07600000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.770700</v>
+        <v>-74.770700000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>61466.143811</v>
+        <v>61466.143811000002</v>
       </c>
       <c r="AK14" s="1">
         <v>17.073929</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.309000</v>
+        <v>973.30899999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.544100</v>
+        <v>-79.5441</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>61477.289907</v>
+        <v>61477.289906999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.077025</v>
+        <v>17.077024999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.389000</v>
+        <v>981.38900000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.205900</v>
+        <v>-91.2059</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>61488.377478</v>
+        <v>61488.377478000002</v>
       </c>
       <c r="AU14" s="1">
         <v>17.080105</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.234000</v>
+        <v>991.23400000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.004000</v>
+        <v>-109.004</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>61499.428867</v>
+        <v>61499.428867000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.083175</v>
+        <v>17.083175000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.547000</v>
+        <v>999.54700000000003</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.738000</v>
+        <v>-124.738</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>61510.442536</v>
+        <v>61510.442536000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.086234</v>
+        <v>17.086234000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.660000</v>
+        <v>1038.6600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.047000</v>
+        <v>-197.047</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>61521.656553</v>
+        <v>61521.656553000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.089349</v>
+        <v>17.089348999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.551000</v>
+        <v>-313.55099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>61532.681137</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.092411</v>
+        <v>17.092410999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.352000</v>
+        <v>-495.35199999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>61543.350572</v>
+        <v>61543.350572000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.095375</v>
+        <v>17.095375000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.770000</v>
+        <v>1339.77</v>
       </c>
       <c r="BV14" s="1">
-        <v>-693.552000</v>
+        <v>-693.55200000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>61554.296285</v>
+        <v>61554.296284999997</v>
       </c>
       <c r="BY14" s="1">
         <v>17.098416</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1476.710000</v>
+        <v>1476.71</v>
       </c>
       <c r="CA14" s="1">
-        <v>-903.267000</v>
+        <v>-903.26700000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>61566.466126</v>
+        <v>61566.466125999999</v>
       </c>
       <c r="CD14" s="1">
         <v>17.101796</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.910000</v>
+        <v>1831.91</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1400.280000</v>
+        <v>-1400.28</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>61393.634196</v>
+        <v>61393.634195999999</v>
       </c>
       <c r="B15" s="1">
         <v>17.053787</v>
       </c>
       <c r="C15" s="1">
-        <v>900.523000</v>
+        <v>900.52300000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.827000</v>
+        <v>-198.827</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>61403.766964</v>
+        <v>61403.766964000002</v>
       </c>
       <c r="G15" s="1">
-        <v>17.056602</v>
+        <v>17.056602000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>918.327000</v>
+        <v>918.327</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.339000</v>
+        <v>-168.339</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>61413.881362</v>
       </c>
       <c r="L15" s="1">
-        <v>17.059411</v>
+        <v>17.059411000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.080000</v>
+        <v>941.08</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.554000</v>
+        <v>-119.554</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>61424.458042</v>
+        <v>61424.458041999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.062349</v>
+        <v>17.062349000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.656000</v>
+        <v>947.65599999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>61434.962315</v>
+        <v>61434.962314999997</v>
       </c>
       <c r="V15" s="1">
-        <v>17.065267</v>
+        <v>17.065266999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>954.195000</v>
+        <v>954.19500000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.506100</v>
+        <v>-88.506100000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>61445.496350</v>
+        <v>61445.496350000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.068193</v>
+        <v>17.068193000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.374000</v>
+        <v>961.37400000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.971900</v>
+        <v>-76.971900000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>61455.985249</v>
+        <v>61455.985248999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.071107</v>
+        <v>17.071107000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.076000</v>
+        <v>966.07600000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.739600</v>
+        <v>-74.739599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>61466.850641</v>
+        <v>61466.850640999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.074125</v>
+        <v>17.074124999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.279000</v>
+        <v>973.279</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.545600</v>
+        <v>-79.545599999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>61477.678278</v>
+        <v>61477.678277999999</v>
       </c>
       <c r="AP15" s="1">
         <v>17.077133</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.361000</v>
+        <v>981.36099999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.207400</v>
+        <v>-91.207400000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>61488.768324</v>
+        <v>61488.768323999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.080213</v>
+        <v>17.080213000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.237000</v>
+        <v>991.23699999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.013000</v>
+        <v>-109.01300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>61499.805833</v>
+        <v>61499.805832999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.083279</v>
+        <v>17.083279000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.540000</v>
+        <v>999.54</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.756000</v>
+        <v>-124.756</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>61511.116572</v>
+        <v>61511.116571999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.086421</v>
+        <v>17.086421000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.038000</v>
+        <v>-197.03800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>61522.347977</v>
+        <v>61522.347976999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.089541</v>
+        <v>17.089541000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.551000</v>
+        <v>-313.55099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>61532.793226</v>
+        <v>61532.793226000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.092443</v>
+        <v>17.092442999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.325000</v>
+        <v>-495.32499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>61543.764236</v>
+        <v>61543.764236000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.095490</v>
+        <v>17.095490000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.740000</v>
+        <v>1339.74</v>
       </c>
       <c r="BV15" s="1">
-        <v>-693.554000</v>
+        <v>-693.55399999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>61554.721852</v>
+        <v>61554.721852000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.098534</v>
+        <v>17.098534000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1476.890000</v>
+        <v>1476.89</v>
       </c>
       <c r="CA15" s="1">
-        <v>-903.234000</v>
+        <v>-903.23400000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>61566.985932</v>
+        <v>61566.985932000003</v>
       </c>
       <c r="CD15" s="1">
         <v>17.101941</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.620000</v>
+        <v>1832.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1399.310000</v>
+        <v>-1399.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>61393.911921</v>
+        <v>61393.911920999999</v>
       </c>
       <c r="B16" s="1">
-        <v>17.053864</v>
+        <v>17.053864000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>900.740000</v>
+        <v>900.74</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.984000</v>
+        <v>-198.98400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>61404.036757</v>
+        <v>61404.036757000002</v>
       </c>
       <c r="G16" s="1">
-        <v>17.056677</v>
+        <v>17.056677000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.307000</v>
+        <v>918.30700000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.978000</v>
+        <v>-167.97800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>61414.227094</v>
+        <v>61414.227094000002</v>
       </c>
       <c r="L16" s="1">
-        <v>17.059508</v>
+        <v>17.059508000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.814000</v>
+        <v>940.81399999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.655000</v>
+        <v>-119.655</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>61424.806232</v>
+        <v>61424.806232000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.062446</v>
+        <v>17.062446000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>947.641000</v>
+        <v>947.64099999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>61435.304059</v>
+        <v>61435.304059000002</v>
       </c>
       <c r="V16" s="1">
         <v>17.065362</v>
       </c>
       <c r="W16" s="1">
-        <v>954.191000</v>
+        <v>954.19100000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.523500</v>
+        <v>-88.523499999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>61446.194748</v>
+        <v>61446.194748000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.068387</v>
+        <v>17.068387000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.336000</v>
+        <v>961.33600000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.879300</v>
+        <v>-76.879300000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>61456.708947</v>
+        <v>61456.708946999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.071308</v>
+        <v>17.071307999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.066000</v>
+        <v>966.06600000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.722900</v>
+        <v>-74.722899999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>61467.188910</v>
+        <v>61467.188909999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.074219</v>
+        <v>17.074218999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.294000</v>
+        <v>973.29399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.539700</v>
+        <v>-79.539699999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>61478.038371</v>
+        <v>61478.038371000002</v>
       </c>
       <c r="AP16" s="1">
         <v>17.077233</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.367000</v>
+        <v>981.36699999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.204300</v>
+        <v>-91.204300000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>61489.130405</v>
+        <v>61489.130405000004</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.080314</v>
+        <v>17.080314000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.238000</v>
+        <v>991.23800000000006</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.010000</v>
+        <v>-109.01</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>61500.481845</v>
+        <v>61500.481845000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.083467</v>
+        <v>17.083466999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.536000</v>
+        <v>999.53599999999994</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.750000</v>
+        <v>-124.75</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>61511.524805</v>
+        <v>61511.524805000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.086535</v>
+        <v>17.086535000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.029000</v>
+        <v>-197.029</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>61522.818214</v>
+        <v>61522.818213999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>17.089672</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.568000</v>
+        <v>-313.56799999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>61533.210393</v>
+        <v>61533.210393000001</v>
       </c>
       <c r="BO16" s="1">
         <v>17.092558</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.356000</v>
+        <v>-495.35599999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>61544.195258</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.095610</v>
+        <v>17.095610000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.790000</v>
+        <v>1339.79</v>
       </c>
       <c r="BV16" s="1">
-        <v>-693.567000</v>
+        <v>-693.56700000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>61555.140514</v>
+        <v>61555.140513999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.098650</v>
+        <v>17.098649999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1476.650000</v>
+        <v>1476.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-903.225000</v>
+        <v>-903.22500000000002</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>61567.502268</v>
+        <v>61567.502267999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.102084</v>
+        <v>17.102084000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.490000</v>
+        <v>1831.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1398.750000</v>
+        <v>-1398.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>61394.254162</v>
+        <v>61394.254161999997</v>
       </c>
       <c r="B17" s="1">
-        <v>17.053959</v>
+        <v>17.053958999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>900.462000</v>
+        <v>900.46199999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.938000</v>
+        <v>-198.93799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>61404.383461</v>
+        <v>61404.383460999998</v>
       </c>
       <c r="G17" s="1">
         <v>17.056773</v>
       </c>
       <c r="H17" s="1">
-        <v>917.969000</v>
+        <v>917.96900000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.210000</v>
+        <v>-168.21</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>61414.570823</v>
+        <v>61414.570823000002</v>
       </c>
       <c r="L17" s="1">
-        <v>17.059603</v>
+        <v>17.059602999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.874000</v>
+        <v>940.87400000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.739000</v>
+        <v>-119.739</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>61425.503607</v>
+        <v>61425.503606999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.062640</v>
+        <v>17.062639999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>947.620000</v>
+        <v>947.62</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.434000</v>
+        <v>-103.434</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>61435.991514</v>
+        <v>61435.991514000001</v>
       </c>
       <c r="V17" s="1">
-        <v>17.065553</v>
+        <v>17.065553000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.259000</v>
+        <v>954.25900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.505500</v>
+        <v>-88.505499999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>61446.539437</v>
+        <v>61446.539436999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.068483</v>
+        <v>17.068483000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.446000</v>
+        <v>961.44600000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.921600</v>
+        <v>-76.921599999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>61457.018415</v>
+        <v>61457.018414999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.071394</v>
+        <v>17.071394000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.095000</v>
+        <v>966.09500000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.695400</v>
+        <v>-74.695400000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>61467.537571</v>
+        <v>61467.537571000001</v>
       </c>
       <c r="AK17" s="1">
         <v>17.074316</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.301000</v>
+        <v>973.30100000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.546100</v>
+        <v>-79.546099999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>61478.705025</v>
+        <v>61478.705025000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.077418</v>
+        <v>17.077418000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.372000</v>
+        <v>981.37199999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.209600</v>
+        <v>-91.209599999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>61489.872915</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.080520</v>
+        <v>17.08052</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.254000</v>
+        <v>991.25400000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.022000</v>
+        <v>-109.02200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>61500.890548</v>
+        <v>61500.890548000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.083581</v>
+        <v>17.083580999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.539000</v>
+        <v>999.53899999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.767000</v>
+        <v>-124.767</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>61511.913142</v>
+        <v>61511.913141999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.086643</v>
+        <v>17.086642999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.026000</v>
+        <v>-197.02600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>61523.155959</v>
+        <v>61523.155959000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.089766</v>
+        <v>17.089766000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.550000</v>
+        <v>1106.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.546000</v>
+        <v>-313.54599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>61533.608162</v>
+        <v>61533.608161999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.092669</v>
+        <v>17.092669000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.321000</v>
+        <v>-495.32100000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>61544.628266</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.095730</v>
+        <v>17.09573</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.750000</v>
+        <v>1339.75</v>
       </c>
       <c r="BV17" s="1">
-        <v>-693.544000</v>
+        <v>-693.54399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>61555.585884</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.098774</v>
+        <v>17.098773999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1476.770000</v>
+        <v>1476.77</v>
       </c>
       <c r="CA17" s="1">
-        <v>-903.289000</v>
+        <v>-903.28899999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>61568.021115</v>
+        <v>61568.021115000003</v>
       </c>
       <c r="CD17" s="1">
         <v>17.102228</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.640000</v>
+        <v>1831.64</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1398.720000</v>
+        <v>-1398.72</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>61394.595904</v>
+        <v>61394.595904000002</v>
       </c>
       <c r="B18" s="1">
-        <v>17.054054</v>
+        <v>17.054054000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>900.487000</v>
+        <v>900.48699999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.950000</v>
+        <v>-198.95</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>61404.725801</v>
+        <v>61404.725801000001</v>
       </c>
       <c r="G18" s="1">
-        <v>17.056868</v>
+        <v>17.056868000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>917.701000</v>
+        <v>917.70100000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.420000</v>
+        <v>-168.42</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>61415.265216</v>
       </c>
       <c r="L18" s="1">
-        <v>17.059796</v>
+        <v>17.059795999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.943000</v>
+        <v>940.94299999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.683000</v>
+        <v>-119.68300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>61425.852792</v>
+        <v>61425.852791999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.062737</v>
+        <v>17.062736999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>947.646000</v>
+        <v>947.64599999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.426000</v>
+        <v>-103.426</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>61436.336729</v>
+        <v>61436.336729000002</v>
       </c>
       <c r="V18" s="1">
-        <v>17.065649</v>
+        <v>17.065649000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.219000</v>
+        <v>954.21900000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.546800</v>
+        <v>-88.546800000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>61446.889115</v>
+        <v>61446.889114999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.068580</v>
+        <v>17.068580000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.432000</v>
+        <v>961.43200000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.971600</v>
+        <v>-76.971599999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>61457.675118</v>
+        <v>61457.675117999999</v>
       </c>
       <c r="AF18" s="1">
         <v>17.071576</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.109000</v>
+        <v>966.10900000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.752900</v>
+        <v>-74.752899999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>61468.197248</v>
+        <v>61468.197247999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.074499</v>
+        <v>17.074498999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.317000</v>
+        <v>973.31700000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.570100</v>
+        <v>-79.570099999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>61479.147425</v>
+        <v>61479.147425000003</v>
       </c>
       <c r="AP18" s="1">
         <v>17.077541</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.371000</v>
+        <v>981.37099999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.199800</v>
+        <v>-91.199799999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>61490.253383</v>
+        <v>61490.253383000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.080626</v>
+        <v>17.080625999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.233000</v>
+        <v>991.23299999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.028000</v>
+        <v>-109.02800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>61501.265555</v>
+        <v>61501.265554999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.083685</v>
+        <v>17.083684999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.541000</v>
+        <v>999.54100000000005</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.752000</v>
+        <v>-124.752</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>61512.273765</v>
+        <v>61512.273764999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.086743</v>
+        <v>17.086742999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.031000</v>
+        <v>-197.03100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>61523.579543</v>
@@ -4773,315 +5189,315 @@
         <v>17.089883</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.553000</v>
+        <v>-313.553</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>61534.021817</v>
+        <v>61534.021817000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.092784</v>
+        <v>17.092784000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.401000</v>
+        <v>-495.40100000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>61545.035481</v>
+        <v>61545.035480999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.095843</v>
+        <v>17.095842999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.650000</v>
+        <v>1339.65</v>
       </c>
       <c r="BV18" s="1">
-        <v>-693.539000</v>
+        <v>-693.53899999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>61556.007979</v>
+        <v>61556.007979000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.098891</v>
+        <v>17.098890999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1476.840000</v>
+        <v>1476.84</v>
       </c>
       <c r="CA18" s="1">
-        <v>-903.341000</v>
+        <v>-903.34100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>61568.575144</v>
+        <v>61568.575144000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.102382</v>
+        <v>17.102381999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.340000</v>
+        <v>1832.34</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1399.070000</v>
+        <v>-1399.07</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>61395.279427</v>
+        <v>61395.279427000001</v>
       </c>
       <c r="B19" s="1">
-        <v>17.054244</v>
+        <v>17.054244000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>900.560000</v>
+        <v>900.56</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.773000</v>
+        <v>-198.773</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>61405.414146</v>
+        <v>61405.414146000003</v>
       </c>
       <c r="G19" s="1">
-        <v>17.057059</v>
+        <v>17.057058999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.517000</v>
+        <v>917.51700000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.428000</v>
+        <v>-168.428</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>61415.605477</v>
+        <v>61415.605476999997</v>
       </c>
       <c r="L19" s="1">
-        <v>17.059890</v>
+        <v>17.059889999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.777000</v>
+        <v>940.77700000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.453000</v>
+        <v>-119.453</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>61426.202998</v>
+        <v>61426.202998000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.062834</v>
+        <v>17.062833999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>947.657000</v>
+        <v>947.65700000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.503000</v>
+        <v>-103.503</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>61436.678970</v>
+        <v>61436.678970000001</v>
       </c>
       <c r="V19" s="1">
-        <v>17.065744</v>
+        <v>17.065743999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.332000</v>
+        <v>954.33199999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.455000</v>
+        <v>-88.454999999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>61447.550282</v>
+        <v>61447.550281999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.068764</v>
+        <v>17.068764000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.450000</v>
+        <v>961.45</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.916000</v>
+        <v>-76.915999999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>61458.045132</v>
+        <v>61458.045131999999</v>
       </c>
       <c r="AF19" s="1">
         <v>17.071679</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.059000</v>
+        <v>966.05899999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.690100</v>
+        <v>-74.690100000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>61468.580656</v>
+        <v>61468.580655999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.074606</v>
+        <v>17.074605999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.285000</v>
+        <v>973.28499999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.520600</v>
+        <v>-79.520600000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>61479.507520</v>
+        <v>61479.507519999999</v>
       </c>
       <c r="AP19" s="1">
         <v>17.077641</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.351000</v>
+        <v>981.351</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.194200</v>
+        <v>-91.194199999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>61490.616946</v>
+        <v>61490.616946000002</v>
       </c>
       <c r="AU19" s="1">
         <v>17.080727</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.246000</v>
+        <v>991.24599999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.994000</v>
+        <v>-108.994</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>61501.656370</v>
+        <v>61501.656369999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>17.083793</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.542000</v>
+        <v>999.54200000000003</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.741000</v>
+        <v>-124.741</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>61512.695333</v>
+        <v>61512.695333000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.086860</v>
+        <v>17.086860000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.055000</v>
+        <v>-197.05500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>61523.909877</v>
+        <v>61523.909876999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.089975</v>
+        <v>17.089974999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.547000</v>
+        <v>-313.54700000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>61534.428567</v>
+        <v>61534.428567000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.092897</v>
+        <v>17.092897000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.363000</v>
+        <v>-495.363</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>61545.465017</v>
+        <v>61545.465017000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.095963</v>
+        <v>17.095963000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.720000</v>
+        <v>1339.72</v>
       </c>
       <c r="BV19" s="1">
-        <v>-693.507000</v>
+        <v>-693.50699999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>61556.430076</v>
+        <v>61556.430075999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.099008</v>
+        <v>17.099008000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1476.790000</v>
+        <v>1476.79</v>
       </c>
       <c r="CA19" s="1">
-        <v>-903.313000</v>
+        <v>-903.31299999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>61569.101897</v>
@@ -5090,60 +5506,60 @@
         <v>17.102528</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.210000</v>
+        <v>1831.21</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1398.880000</v>
+        <v>-1398.88</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>61395.622156</v>
+        <v>61395.622155999998</v>
       </c>
       <c r="B20" s="1">
-        <v>17.054339</v>
+        <v>17.054338999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>900.522000</v>
+        <v>900.52200000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.695000</v>
+        <v>-198.69499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>61405.758952</v>
+        <v>61405.758951999996</v>
       </c>
       <c r="G20" s="1">
-        <v>17.057155</v>
+        <v>17.057155000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>917.844000</v>
+        <v>917.84400000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.844000</v>
+        <v>-167.84399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>61415.959125</v>
+        <v>61415.959125000001</v>
       </c>
       <c r="L20" s="1">
-        <v>17.059989</v>
+        <v>17.059989000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.897000</v>
+        <v>940.89700000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.602000</v>
+        <v>-119.602</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>61426.855206</v>
@@ -5152,73 +5568,73 @@
         <v>17.063015</v>
       </c>
       <c r="R20" s="1">
-        <v>947.663000</v>
+        <v>947.66300000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.479000</v>
+        <v>-103.479</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>61437.335177</v>
+        <v>61437.335177000001</v>
       </c>
       <c r="V20" s="1">
-        <v>17.065926</v>
+        <v>17.065926000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.177000</v>
+        <v>954.17700000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.406500</v>
+        <v>-88.406499999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>61447.935209</v>
+        <v>61447.935209000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.068871</v>
+        <v>17.068871000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.406000</v>
+        <v>961.40599999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.913500</v>
+        <v>-76.913499999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>61458.389356</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.071775</v>
+        <v>17.071774999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.148000</v>
+        <v>966.14800000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.542400</v>
+        <v>-74.542400000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>61468.929838</v>
+        <v>61468.929837999996</v>
       </c>
       <c r="AK20" s="1">
         <v>17.074703</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.274000</v>
+        <v>973.274</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.543800</v>
+        <v>-79.543800000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>61479.866661</v>
@@ -5227,225 +5643,225 @@
         <v>17.077741</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.378000</v>
+        <v>981.37800000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.204100</v>
+        <v>-91.204099999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>61491.032097</v>
+        <v>61491.032097000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.080842</v>
+        <v>17.080842000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.266000</v>
+        <v>991.26599999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.014000</v>
+        <v>-109.014</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>61502.085942</v>
+        <v>61502.085941999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.083913</v>
+        <v>17.083912999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.550000</v>
+        <v>999.55</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.772000</v>
+        <v>-124.77200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>61512.999382</v>
+        <v>61512.999382000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.086944</v>
+        <v>17.086943999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.630000</v>
+        <v>1038.6300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.049000</v>
+        <v>-197.04900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>61524.289318</v>
+        <v>61524.289318000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.090080</v>
+        <v>17.09008</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.548000</v>
+        <v>-313.548</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>61534.852120</v>
+        <v>61534.852120000003</v>
       </c>
       <c r="BO20" s="1">
         <v>17.093014</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.820000</v>
+        <v>1216.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.361000</v>
+        <v>-495.36099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>61545.894086</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.096082</v>
+        <v>17.096081999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.690000</v>
+        <v>1339.69</v>
       </c>
       <c r="BV20" s="1">
-        <v>-693.465000</v>
+        <v>-693.46500000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>61556.880474</v>
+        <v>61556.880473999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.099133</v>
+        <v>17.099132999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1476.840000</v>
+        <v>1476.84</v>
       </c>
       <c r="CA20" s="1">
-        <v>-903.159000</v>
+        <v>-903.15899999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>61569.622169</v>
+        <v>61569.622169000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.102673</v>
+        <v>17.102672999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1831.790000</v>
+        <v>1831.79</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1400.050000</v>
+        <v>-1400.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>61395.964368</v>
+        <v>61395.964368000001</v>
       </c>
       <c r="B21" s="1">
-        <v>17.054435</v>
+        <v>17.054435000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>900.397000</v>
+        <v>900.39700000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.895000</v>
+        <v>-198.89500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>61406.108050</v>
+        <v>61406.108050000003</v>
       </c>
       <c r="G21" s="1">
-        <v>17.057252</v>
+        <v>17.057251999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>918.008000</v>
+        <v>918.00800000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.842000</v>
+        <v>-167.84200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>61416.616787</v>
+        <v>61416.616786999999</v>
       </c>
       <c r="L21" s="1">
         <v>17.060171</v>
       </c>
       <c r="M21" s="1">
-        <v>940.872000</v>
+        <v>940.87199999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.528000</v>
+        <v>-119.52800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>61427.248533</v>
+        <v>61427.248532999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.063125</v>
+        <v>17.063124999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>947.628000</v>
+        <v>947.62800000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.519000</v>
+        <v>-103.51900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>61437.710647</v>
       </c>
       <c r="V21" s="1">
-        <v>17.066031</v>
+        <v>17.066030999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.156000</v>
+        <v>954.15599999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.515200</v>
+        <v>-88.515199999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>61448.284362</v>
+        <v>61448.284361999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.068968</v>
+        <v>17.068968000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.403000</v>
+        <v>961.40300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.926300</v>
+        <v>-76.926299999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>61458.727132</v>
@@ -5454,1450 +5870,1451 @@
         <v>17.071869</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.126000</v>
+        <v>966.12599999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.776600</v>
+        <v>-74.776600000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>61469.278031</v>
+        <v>61469.278031000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.074799</v>
+        <v>17.074798999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.301000</v>
+        <v>973.30100000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.540200</v>
+        <v>-79.540199999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>61480.296655</v>
+        <v>61480.296654999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.077860</v>
+        <v>17.077860000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.390000</v>
+        <v>981.39</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.209500</v>
+        <v>-91.209500000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>61491.344581</v>
+        <v>61491.344580999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.080929</v>
+        <v>17.080929000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.230000</v>
+        <v>991.23</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.000000</v>
+        <v>-109</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>61502.373091</v>
+        <v>61502.373091000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.083993</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.554000</v>
+        <v>999.55399999999997</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.740000</v>
+        <v>-124.74</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>61513.360003</v>
+        <v>61513.360003000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.087044</v>
+        <v>17.087043999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.040000</v>
+        <v>-197.04</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>61524.678709</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.090189</v>
+        <v>17.090188999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.550000</v>
+        <v>1106.55</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.549000</v>
+        <v>-313.54899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>61535.248422</v>
+        <v>61535.248421999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.093125</v>
+        <v>17.093125000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.335000</v>
+        <v>-495.33499999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>61546.317184</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.096199</v>
+        <v>17.096198999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.670000</v>
+        <v>1339.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-693.510000</v>
+        <v>-693.51</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>61557.312986</v>
+        <v>61557.312985999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.099254</v>
+        <v>17.099253999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1476.730000</v>
+        <v>1476.73</v>
       </c>
       <c r="CA21" s="1">
-        <v>-903.294000</v>
+        <v>-903.29399999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>61570.157848</v>
+        <v>61570.157848000003</v>
       </c>
       <c r="CD21" s="1">
         <v>17.102822</v>
       </c>
       <c r="CE21" s="1">
-        <v>1832.120000</v>
+        <v>1832.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1398.890000</v>
+        <v>-1398.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>61396.617632</v>
+        <v>61396.617632000001</v>
       </c>
       <c r="B22" s="1">
-        <v>17.054616</v>
+        <v>17.054615999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>900.345000</v>
+        <v>900.34500000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.992000</v>
+        <v>-198.99199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>61406.771201</v>
+        <v>61406.771201000003</v>
       </c>
       <c r="G22" s="1">
-        <v>17.057436</v>
+        <v>17.057435999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>918.169000</v>
+        <v>918.16899999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.137000</v>
+        <v>-168.137</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>61416.992294</v>
+        <v>61416.992294000003</v>
       </c>
       <c r="L22" s="1">
-        <v>17.060276</v>
+        <v>17.060276000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>940.881000</v>
+        <v>940.88099999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.677000</v>
+        <v>-119.67700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>61427.598711</v>
+        <v>61427.598710999999</v>
       </c>
       <c r="Q22" s="1">
         <v>17.063222</v>
       </c>
       <c r="R22" s="1">
-        <v>947.634000</v>
+        <v>947.63400000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.470000</v>
+        <v>-103.47</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>61438.053912</v>
+        <v>61438.053912000003</v>
       </c>
       <c r="V22" s="1">
-        <v>17.066126</v>
+        <v>17.066126000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.212000</v>
+        <v>954.21199999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.477500</v>
+        <v>-88.477500000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>61448.632095</v>
+        <v>61448.632095000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.069064</v>
+        <v>17.069064000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.446000</v>
+        <v>961.44600000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.915900</v>
+        <v>-76.915899999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>61459.163146</v>
+        <v>61459.163145999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.071990</v>
+        <v>17.07199</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.125000</v>
+        <v>966.125</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.761200</v>
+        <v>-74.761200000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>61469.693677</v>
+        <v>61469.693677000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.074915</v>
+        <v>17.074915000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.282000</v>
+        <v>973.28200000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.528300</v>
+        <v>-79.528300000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>61480.586319</v>
+        <v>61480.586319000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.077941</v>
+        <v>17.077940999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.358000</v>
+        <v>981.35799999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.200700</v>
+        <v>-91.200699999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>61491.710128</v>
+        <v>61491.710127999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.081031</v>
+        <v>17.081030999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.247000</v>
+        <v>991.24699999999996</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.014000</v>
+        <v>-109.014</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>61502.721810</v>
+        <v>61502.721810000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.084089</v>
+        <v>17.084088999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.547000</v>
+        <v>999.54700000000003</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.753000</v>
+        <v>-124.753</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>61513.722548</v>
+        <v>61513.722547999998</v>
       </c>
       <c r="BE22" s="1">
         <v>17.087145</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.052000</v>
+        <v>-197.05199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>61525.429620</v>
+        <v>61525.429620000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.090397</v>
+        <v>17.090396999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.547000</v>
+        <v>-313.54700000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>61535.672503</v>
+        <v>61535.672503000002</v>
       </c>
       <c r="BO22" s="1">
         <v>17.093242</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.375000</v>
+        <v>-495.375</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>61546.735799</v>
+        <v>61546.735799000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.096315</v>
+        <v>17.096315000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.650000</v>
+        <v>1339.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-693.469000</v>
+        <v>-693.46900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>61557.732074</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.099370</v>
+        <v>17.09937</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1476.700000</v>
+        <v>1476.7</v>
       </c>
       <c r="CA22" s="1">
-        <v>-903.358000</v>
+        <v>-903.35799999999995</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>61570.700969</v>
+        <v>61570.700968999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.102972</v>
+        <v>17.102972000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.120000</v>
+        <v>1831.12</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1400.310000</v>
+        <v>-1400.31</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>61396.989101</v>
+        <v>61396.989100999999</v>
       </c>
       <c r="B23" s="1">
-        <v>17.054719</v>
+        <v>17.054718999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>900.501000</v>
+        <v>900.50099999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.996000</v>
+        <v>-198.99600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>61407.149664</v>
+        <v>61407.149663999997</v>
       </c>
       <c r="G23" s="1">
-        <v>17.057542</v>
+        <v>17.057542000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>917.865000</v>
+        <v>917.86500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.528000</v>
+        <v>-168.52799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>61417.340450</v>
+        <v>61417.340450000003</v>
       </c>
       <c r="L23" s="1">
-        <v>17.060372</v>
+        <v>17.060372000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.724000</v>
+        <v>940.72400000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.725000</v>
+        <v>-119.72499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>61427.945431</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.063318</v>
+        <v>17.063317999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>947.659000</v>
+        <v>947.65899999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.481000</v>
+        <v>-103.48099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>61438.408024</v>
+        <v>61438.408023999997</v>
       </c>
       <c r="V23" s="1">
-        <v>17.066224</v>
+        <v>17.066223999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>954.161000</v>
+        <v>954.16099999999994</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.531500</v>
+        <v>-88.531499999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>61449.053192</v>
+        <v>61449.053191999999</v>
       </c>
       <c r="AA23" s="1">
         <v>17.069181</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.439000</v>
+        <v>961.43899999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.854500</v>
+        <v>-76.854500000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>61459.418058</v>
+        <v>61459.418058000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.072061</v>
+        <v>17.072061000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.075000</v>
+        <v>966.07500000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.799000</v>
+        <v>-74.799000000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>61469.989293</v>
+        <v>61469.989292999999</v>
       </c>
       <c r="AK23" s="1">
         <v>17.074997</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.296000</v>
+        <v>973.29600000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.539000</v>
+        <v>-79.539000000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>61480.944461</v>
+        <v>61480.944460999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.078040</v>
+        <v>17.078040000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.357000</v>
+        <v>981.35699999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.217600</v>
+        <v>-91.217600000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>61492.076671</v>
+        <v>61492.076671000003</v>
       </c>
       <c r="AU23" s="1">
         <v>17.081132</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.244000</v>
+        <v>991.24400000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>61503.089845</v>
+        <v>61503.089845000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.084192</v>
+        <v>17.084192000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.546000</v>
+        <v>999.54600000000005</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.718000</v>
+        <v>-124.718</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>61514.439266</v>
+        <v>61514.439266000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.087344</v>
+        <v>17.087344000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.061000</v>
+        <v>-197.06100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>61525.830884</v>
+        <v>61525.830884000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.090509</v>
+        <v>17.090509000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.560000</v>
+        <v>-313.56</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>61536.064028</v>
+        <v>61536.064028000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.093351</v>
+        <v>17.093350999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.361000</v>
+        <v>-495.36099999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>61547.162979</v>
+        <v>61547.162979000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.096434</v>
+        <v>17.096433999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.630000</v>
+        <v>1339.63</v>
       </c>
       <c r="BV23" s="1">
-        <v>-693.466000</v>
+        <v>-693.46600000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>61558.469160</v>
+        <v>61558.469160000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.099575</v>
+        <v>17.099575000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1476.690000</v>
+        <v>1476.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-903.223000</v>
+        <v>-903.22299999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>61571.565990</v>
+        <v>61571.565990000003</v>
       </c>
       <c r="CD23" s="1">
         <v>17.103213</v>
       </c>
       <c r="CE23" s="1">
-        <v>1831.420000</v>
+        <v>1831.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1398.600000</v>
+        <v>-1398.6</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>61397.332333</v>
+        <v>61397.332332999998</v>
       </c>
       <c r="B24" s="1">
-        <v>17.054815</v>
+        <v>17.054815000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>900.714000</v>
+        <v>900.71400000000006</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.860000</v>
+        <v>-198.86</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>61407.490399</v>
+        <v>61407.490399000002</v>
       </c>
       <c r="G24" s="1">
-        <v>17.057636</v>
+        <v>17.057635999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>918.183000</v>
+        <v>918.18299999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.407000</v>
+        <v>-168.40700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>61417.686162</v>
+        <v>61417.686161999998</v>
       </c>
       <c r="L24" s="1">
         <v>17.060468</v>
       </c>
       <c r="M24" s="1">
-        <v>940.825000</v>
+        <v>940.82500000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.670000</v>
+        <v>-119.67</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>61428.371012</v>
+        <v>61428.371012000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.063436</v>
+        <v>17.063435999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.478000</v>
+        <v>-103.47799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>61438.835079</v>
+        <v>61438.835078999997</v>
       </c>
       <c r="V24" s="1">
         <v>17.066343</v>
       </c>
       <c r="W24" s="1">
-        <v>954.184000</v>
+        <v>954.18399999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.531400</v>
+        <v>-88.531400000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>61449.334889</v>
+        <v>61449.334888999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.069260</v>
+        <v>17.06926</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.414000</v>
+        <v>961.41399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.919300</v>
+        <v>-76.919300000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>61459.762810</v>
+        <v>61459.76281</v>
       </c>
       <c r="AF24" s="1">
         <v>17.072156</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.109000</v>
+        <v>966.10900000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.732300</v>
+        <v>-74.732299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>61470.337484</v>
+        <v>61470.337484000003</v>
       </c>
       <c r="AK24" s="1">
         <v>17.075094</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.306000</v>
+        <v>973.30600000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.512500</v>
+        <v>-79.512500000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>61481.309522</v>
+        <v>61481.309522000003</v>
       </c>
       <c r="AP24" s="1">
         <v>17.078142</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.372000</v>
+        <v>981.37199999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.209000</v>
+        <v>-91.209000000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>61492.804272</v>
+        <v>61492.804272000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.081335</v>
+        <v>17.081334999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.240000</v>
+        <v>991.24</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.014000</v>
+        <v>-109.014</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>61503.805072</v>
+        <v>61503.805072000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.084390</v>
+        <v>17.084389999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.559000</v>
+        <v>999.55899999999997</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.767000</v>
+        <v>-124.767</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>61514.803857</v>
+        <v>61514.803856999999</v>
       </c>
       <c r="BE24" s="1">
         <v>17.087446</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.640000</v>
+        <v>1038.6400000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.040000</v>
+        <v>-197.04</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>61526.206851</v>
+        <v>61526.206851000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.090613</v>
+        <v>17.090613000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.560000</v>
+        <v>1106.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.552000</v>
+        <v>-313.55200000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>61536.485445</v>
+        <v>61536.485444999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.093468</v>
+        <v>17.093468000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.354000</v>
+        <v>-495.35399999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>61547.890486</v>
+        <v>61547.890485999997</v>
       </c>
       <c r="BT24" s="1">
         <v>17.096636</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.710000</v>
+        <v>1339.71</v>
       </c>
       <c r="BV24" s="1">
-        <v>-693.422000</v>
+        <v>-693.42200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>61558.582253</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.099606</v>
+        <v>17.099606000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1476.780000</v>
+        <v>1476.78</v>
       </c>
       <c r="CA24" s="1">
-        <v>-903.272000</v>
+        <v>-903.27200000000005</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>61571.779807</v>
+        <v>61571.779806999999</v>
       </c>
       <c r="CD24" s="1">
         <v>17.103272</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.690000</v>
+        <v>1831.69</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1398.620000</v>
+        <v>-1398.62</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>61397.675069</v>
+        <v>61397.675068999997</v>
       </c>
       <c r="B25" s="1">
-        <v>17.054910</v>
+        <v>17.05491</v>
       </c>
       <c r="C25" s="1">
-        <v>900.595000</v>
+        <v>900.59500000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.921000</v>
+        <v>-198.92099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>61407.907040</v>
+        <v>61407.907039999998</v>
       </c>
       <c r="G25" s="1">
-        <v>17.057752</v>
+        <v>17.057752000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>917.876000</v>
+        <v>917.87599999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.269000</v>
+        <v>-168.26900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>61418.101346</v>
+        <v>61418.101346000003</v>
       </c>
       <c r="L25" s="1">
-        <v>17.060584</v>
+        <v>17.060583999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>940.944000</v>
+        <v>940.94399999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.622000</v>
+        <v>-119.622</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>61428.649235</v>
+        <v>61428.649234999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.063514</v>
+        <v>17.063514000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>947.672000</v>
+        <v>947.67200000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.476000</v>
+        <v>-103.476</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>61439.108870</v>
+        <v>61439.108869999996</v>
       </c>
       <c r="V25" s="1">
         <v>17.066419</v>
       </c>
       <c r="W25" s="1">
-        <v>954.242000</v>
+        <v>954.24199999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.529200</v>
+        <v>-88.529200000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>61449.685595</v>
+        <v>61449.685595000003</v>
       </c>
       <c r="AA25" s="1">
         <v>17.069357</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.424000</v>
+        <v>961.42399999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.029300</v>
+        <v>-77.029300000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>61460.108490</v>
+        <v>61460.108489999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.072252</v>
+        <v>17.072251999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.100000</v>
+        <v>966.1</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.737700</v>
+        <v>-74.737700000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>61470.688156</v>
+        <v>61470.688155999997</v>
       </c>
       <c r="AK25" s="1">
         <v>17.075191</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.301000</v>
+        <v>973.30100000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.540400</v>
+        <v>-79.540400000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>61482.035628</v>
+        <v>61482.035627999998</v>
       </c>
       <c r="AP25" s="1">
         <v>17.078343</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.371000</v>
+        <v>981.37099999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.196700</v>
+        <v>-91.196700000000007</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>61493.195118</v>
+        <v>61493.195118000003</v>
       </c>
       <c r="AU25" s="1">
         <v>17.081443</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.253000</v>
+        <v>991.25300000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.006000</v>
+        <v>-109.006</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>61504.161695</v>
+        <v>61504.161695000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.084489</v>
+        <v>17.084489000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.531000</v>
+        <v>999.53099999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.723000</v>
+        <v>-124.723</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>61515.163427</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.087545</v>
+        <v>17.087544999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.630000</v>
+        <v>1038.6300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>61526.887891</v>
+        <v>61526.887890999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>17.090802</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.543000</v>
+        <v>-313.54300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>61537.189798</v>
+        <v>61537.189797999999</v>
       </c>
       <c r="BO25" s="1">
         <v>17.093664</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.318000</v>
+        <v>-495.31799999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>61548.006517</v>
+        <v>61548.006517000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.096668</v>
+        <v>17.096668000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.630000</v>
+        <v>1339.63</v>
       </c>
       <c r="BV25" s="1">
-        <v>-693.364000</v>
+        <v>-693.36400000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>61559.024647</v>
+        <v>61559.024646999998</v>
       </c>
       <c r="BY25" s="1">
         <v>17.099729</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1476.770000</v>
+        <v>1476.77</v>
       </c>
       <c r="CA25" s="1">
-        <v>-903.232000</v>
+        <v>-903.23199999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>61572.347208</v>
+        <v>61572.347207999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.103430</v>
+        <v>17.103429999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.040000</v>
+        <v>1831.04</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1399.930000</v>
+        <v>-1399.93</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>61398.095675</v>
+        <v>61398.095674999997</v>
       </c>
       <c r="B26" s="1">
-        <v>17.055027</v>
+        <v>17.055026999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.390000</v>
+        <v>900.39</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.000000</v>
+        <v>-199</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>61408.187279</v>
+        <v>61408.187278999998</v>
       </c>
       <c r="G26" s="1">
-        <v>17.057830</v>
+        <v>17.057829999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>918.382000</v>
+        <v>918.38199999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.052000</v>
+        <v>-169.05199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>61418.397425</v>
+        <v>61418.397425000003</v>
       </c>
       <c r="L26" s="1">
-        <v>17.060666</v>
+        <v>17.060666000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.918000</v>
+        <v>940.91800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.486000</v>
+        <v>-119.486</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>61429.001427</v>
+        <v>61429.001427000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.063612</v>
+        <v>17.063611999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>947.627000</v>
+        <v>947.62699999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.474000</v>
+        <v>-103.474</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>61439.452101</v>
+        <v>61439.452101000003</v>
       </c>
       <c r="V26" s="1">
-        <v>17.066514</v>
+        <v>17.066514000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>954.182000</v>
+        <v>954.18200000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.483200</v>
+        <v>-88.483199999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>61450.032295</v>
+        <v>61450.032294999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.069453</v>
+        <v>17.069452999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.406000</v>
+        <v>961.40599999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.861000</v>
+        <v>-76.861000000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>61460.790986</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.072442</v>
+        <v>17.072441999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.093000</v>
+        <v>966.09299999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.721700</v>
+        <v>-74.721699999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>61471.382103</v>
+        <v>61471.382103000004</v>
       </c>
       <c r="AK26" s="1">
         <v>17.075384</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.294000</v>
+        <v>973.29399999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.519800</v>
+        <v>-79.519800000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>61482.413612</v>
+        <v>61482.413611999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.078448</v>
+        <v>17.078448000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.354000</v>
+        <v>981.35400000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.210600</v>
+        <v>-91.210599999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>61493.561661</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.081545</v>
+        <v>17.081544999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.244000</v>
+        <v>991.24400000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.001000</v>
+        <v>-109.001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>61504.525263</v>
+        <v>61504.525263000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.084590</v>
+        <v>17.084589999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.533000</v>
+        <v>999.53300000000002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.754000</v>
+        <v>-124.754</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>61515.847408</v>
+        <v>61515.847408000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.087735</v>
+        <v>17.087734999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.650000</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.056000</v>
+        <v>-197.05600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>61526.998076</v>
+        <v>61526.998076000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>17.090833</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.550000</v>
+        <v>1106.55</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.560000</v>
+        <v>-313.56</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>61537.304837</v>
+        <v>61537.304837000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.093696</v>
+        <v>17.093696000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.370000</v>
+        <v>-495.37</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>61548.445477</v>
+        <v>61548.445477000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.096790</v>
+        <v>17.096789999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.660000</v>
+        <v>1339.66</v>
       </c>
       <c r="BV26" s="1">
-        <v>-693.419000</v>
+        <v>-693.41899999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>61559.461128</v>
+        <v>61559.461128000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.099850</v>
+        <v>17.09985</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1476.690000</v>
+        <v>1476.69</v>
       </c>
       <c r="CA26" s="1">
-        <v>-903.288000</v>
+        <v>-903.28800000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>61572.960320</v>
+        <v>61572.960319999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.103600</v>
+        <v>17.1036</v>
       </c>
       <c r="CE26" s="1">
-        <v>1832.210000</v>
+        <v>1832.21</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1400.200000</v>
+        <v>-1400.2</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>